--- a/template/Sample_Vulnerability_Excel.xlsx
+++ b/template/Sample_Vulnerability_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrsls\Desktop\Re_Automater\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrsls\Documents\Scripts\Python\Re_Automater\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97D8850-3128-476A-A53C-8E3CE3F62BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7580BBB3-3BCC-4FAD-BC36-205E86C7CD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B6B57AF-33E5-48A5-8A03-172EF4DD168E}"/>
   </bookViews>
@@ -876,13 +876,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -900,6 +893,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -934,7 +934,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29C856FA-635E-4B67-B373-D4568738BF03}" name="Table1" displayName="Table1" ref="A1:J26" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29C856FA-635E-4B67-B373-D4568738BF03}" name="Table1" displayName="Table1" ref="A1:J26" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J26" xr:uid="{29C856FA-635E-4B67-B373-D4568738BF03}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{A0CB2617-A664-4D0F-B86C-1C5B16C2B120}" name="Item" dataDxfId="9"/>
@@ -1249,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6B1EB4-B883-451F-91E1-01F8774B658D}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2097,9 +2097,6 @@
       <c r="J26" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
